--- a/PMIS/Progress Register.xlsx
+++ b/PMIS/Progress Register.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ca01c0acc71d382/Documents/Uni/Year 3/Group Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F05655E2-6868-42C5-9609-3CEA834F832B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{F05655E2-6868-42C5-9609-3CEA834F832B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{03D8C29C-85C3-44A4-996F-E69872EEB880}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1113,7 +1113,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,7 +1163,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3992,7 +3992,7 @@
   <dimension ref="A1:CW19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4313,7 +4313,7 @@
         <v>113</v>
       </c>
       <c r="B2" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -4381,7 +4381,7 @@
         <v>116</v>
       </c>
       <c r="B4" s="7">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4449,7 +4449,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -4517,7 +4517,7 @@
         <v>115</v>
       </c>
       <c r="B8" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="B11" s="9">
         <f>IF(B4="","",B4+B6)</f>
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="AC11" s="9" t="str">
         <f t="shared" ref="AC11:BN11" si="2">IF(AC4="","",AC4+AC6)</f>

--- a/PMIS/Progress Register.xlsx
+++ b/PMIS/Progress Register.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{F05655E2-6868-42C5-9609-3CEA834F832B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{03D8C29C-85C3-44A4-996F-E69872EEB880}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{F05655E2-6868-42C5-9609-3CEA834F832B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86580549-C43F-42D1-A87D-121D6233E9EA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="140">
   <si>
     <t>Planned Cost</t>
   </si>
@@ -724,9 +724,15 @@
             <c:strRef>
               <c:f>[0]!p2Labels</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>W00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>W02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -736,8 +742,14 @@
               <c:f>[0]!p2Budget</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -786,7 +798,7 @@
               <c:f>[0]!p2CostTolerance</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1099,9 +1111,15 @@
             <c:strRef>
               <c:f>[0]!p2Labels</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>W00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>W02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1111,8 +1129,14 @@
               <c:f>[0]!p2Duration</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -1161,7 +1185,7 @@
               <c:f>[0]!p2TimeTolerance</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>49</c:v>
                 </c:pt>
@@ -1475,8 +1499,14 @@
               <c:f>[0]!P2CompletionNowD</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1524,9 +1554,15 @@
             <c:strRef>
               <c:f>[0]!p2Labels</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>W00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>W02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1576,9 +1612,15 @@
             <c:strRef>
               <c:f>[0]!p2Labels</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>W00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>W02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1588,8 +1630,14 @@
               <c:f>[0]!p2Labels</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3992,7 +4040,7 @@
   <dimension ref="A1:CW19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4315,8 +4363,12 @@
       <c r="B2" s="7">
         <v>5</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="7">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -4349,8 +4401,12 @@
       <c r="B3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -4383,8 +4439,12 @@
       <c r="B4" s="7">
         <v>35</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="7">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7">
+        <v>35</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -4417,8 +4477,12 @@
       <c r="B5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4451,8 +4515,12 @@
       <c r="B6" s="7">
         <v>14</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="7">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>14</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4485,8 +4553,12 @@
       <c r="B7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4519,8 +4591,12 @@
       <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -4553,8 +4629,12 @@
       <c r="B9" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -5189,8 +5269,12 @@
       <c r="B12" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>

--- a/PMIS/Progress Register.xlsx
+++ b/PMIS/Progress Register.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\PMIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\PMIS\Live Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{F05655E2-6868-42C5-9609-3CEA834F832B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86580549-C43F-42D1-A87D-121D6233E9EA}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{F05655E2-6868-42C5-9609-3CEA834F832B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D3F4FD7F-41FB-404D-A8FE-6F0DCE5A7B45}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="140">
   <si>
     <t>Planned Cost</t>
   </si>
@@ -724,7 +724,7 @@
             <c:strRef>
               <c:f>[0]!p2Labels</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>W00</c:v>
                 </c:pt>
@@ -734,6 +734,9 @@
                 <c:pt idx="2">
                   <c:v>W02</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>W03</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -742,7 +745,7 @@
               <c:f>[0]!p2Budget</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -750,6 +753,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -798,7 +804,7 @@
               <c:f>[0]!p2CostTolerance</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1111,7 +1117,7 @@
             <c:strRef>
               <c:f>[0]!p2Labels</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>W00</c:v>
                 </c:pt>
@@ -1121,6 +1127,9 @@
                 <c:pt idx="2">
                   <c:v>W02</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>W03</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1129,7 +1138,7 @@
               <c:f>[0]!p2Duration</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
                 </c:pt>
@@ -1138,6 +1147,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,7 +1197,7 @@
               <c:f>[0]!p2TimeTolerance</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>49</c:v>
                 </c:pt>
@@ -1499,7 +1511,7 @@
               <c:f>[0]!P2CompletionNowD</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1507,6 +1519,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1554,7 +1569,7 @@
             <c:strRef>
               <c:f>[0]!p2Labels</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>W00</c:v>
                 </c:pt>
@@ -1563,6 +1578,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>W02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>W03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1612,7 +1630,7 @@
             <c:strRef>
               <c:f>[0]!p2Labels</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>W00</c:v>
                 </c:pt>
@@ -1622,6 +1640,9 @@
                 <c:pt idx="2">
                   <c:v>W02</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>W03</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1630,7 +1651,7 @@
               <c:f>[0]!p2Labels</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1638,6 +1659,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4040,7 +4064,7 @@
   <dimension ref="A1:CW19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4369,7 +4393,9 @@
       <c r="D2" s="7">
         <v>5</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7">
+        <v>7</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -4407,7 +4433,9 @@
       <c r="D3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4445,7 +4473,9 @@
       <c r="D4" s="7">
         <v>35</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7">
+        <v>37</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -4483,7 +4513,9 @@
       <c r="D5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -4521,7 +4553,9 @@
       <c r="D6" s="7">
         <v>14</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>14</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -4559,7 +4593,9 @@
       <c r="D7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4597,7 +4633,9 @@
       <c r="D8" s="7">
         <v>2</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -4635,7 +4673,9 @@
       <c r="D9" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -5275,7 +5315,9 @@
       <c r="D12" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
